--- a/LaTeX/Experiment/Results/Solubility.xlsx
+++ b/LaTeX/Experiment/Results/Solubility.xlsx
@@ -178,6 +178,20 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'1 Molar'!$B$3:$B$13</c:f>
@@ -274,11 +288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85778816"/>
-        <c:axId val="85780736"/>
+        <c:axId val="165846016"/>
+        <c:axId val="165860480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85778816"/>
+        <c:axId val="165846016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,7 +323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85780736"/>
+        <c:crossAx val="165860480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -317,7 +331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85780736"/>
+        <c:axId val="165860480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -349,7 +363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85778816"/>
+        <c:crossAx val="165846016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -424,6 +438,20 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'1 Molar'!$B$3:$B$13</c:f>
@@ -520,11 +548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101309056"/>
-        <c:axId val="101593856"/>
+        <c:axId val="165885440"/>
+        <c:axId val="165887360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101309056"/>
+        <c:axId val="165885440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101593856"/>
+        <c:crossAx val="165887360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -563,7 +591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101593856"/>
+        <c:axId val="165887360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -594,7 +622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101309056"/>
+        <c:crossAx val="165885440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -669,6 +697,19 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'1 Molar'!$B$3:$B$13</c:f>
@@ -765,11 +806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101627008"/>
-        <c:axId val="101628928"/>
+        <c:axId val="168448000"/>
+        <c:axId val="168449920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101627008"/>
+        <c:axId val="168448000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101628928"/>
+        <c:crossAx val="168449920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -808,7 +849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101628928"/>
+        <c:axId val="168449920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -839,7 +880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101627008"/>
+        <c:crossAx val="168448000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -914,6 +955,19 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'1 Molar'!$B$3:$B$13</c:f>
@@ -990,10 +1044,10 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,11 +1064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101387648"/>
-        <c:axId val="101393920"/>
+        <c:axId val="168474880"/>
+        <c:axId val="168477056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101387648"/>
+        <c:axId val="168474880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101393920"/>
+        <c:crossAx val="168477056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1053,7 +1107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101393920"/>
+        <c:axId val="168477056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1084,11 +1138,623 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101387648"/>
+        <c:crossAx val="168474880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show The Volume Of Hydrogen Produced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> From 0.1 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>of 1.0 Molar Sulfuric Acid </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1 Molar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Molar'!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Molar'!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 Molar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Molar'!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 Molar'!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3 Molar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Molar'!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 Molar'!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>4 Molar </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 Molar'!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 Molar'!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="181158272"/>
+        <c:axId val="181160192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="181158272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181160192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181160192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181158272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1226,6 +1892,43 @@
       <xdr:colOff>360028</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>146504</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>360028</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175079</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1538,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +2360,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +2594,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,7 +2688,7 @@
         <v>270</v>
       </c>
       <c r="C12" s="3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1993,7 +2696,7 @@
         <v>300</v>
       </c>
       <c r="C13" s="3">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2007,10 +2710,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LaTeX/Experiment/Results/Solubility.xlsx
+++ b/LaTeX/Experiment/Results/Solubility.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 Molar" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -288,11 +287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165846016"/>
-        <c:axId val="165860480"/>
+        <c:axId val="79811712"/>
+        <c:axId val="79813632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165846016"/>
+        <c:axId val="79811712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,14 +315,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165860480"/>
+        <c:crossAx val="79813632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -331,7 +329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165860480"/>
+        <c:axId val="79813632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -356,14 +354,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165846016"/>
+        <c:crossAx val="79811712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -423,7 +420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -548,11 +544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165885440"/>
-        <c:axId val="165887360"/>
+        <c:axId val="81736064"/>
+        <c:axId val="81737984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165885440"/>
+        <c:axId val="81736064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +572,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165887360"/>
+        <c:crossAx val="81737984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -591,7 +586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165887360"/>
+        <c:axId val="81737984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -615,14 +610,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165885440"/>
+        <c:crossAx val="81736064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -682,7 +676,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -806,11 +799,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168448000"/>
-        <c:axId val="168449920"/>
+        <c:axId val="81763712"/>
+        <c:axId val="82118144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168448000"/>
+        <c:axId val="81763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,14 +827,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168449920"/>
+        <c:crossAx val="82118144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168449920"/>
+        <c:axId val="82118144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -873,14 +865,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168448000"/>
+        <c:crossAx val="81763712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1064,11 +1055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168474880"/>
-        <c:axId val="168477056"/>
+        <c:axId val="82205312"/>
+        <c:axId val="82207488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168474880"/>
+        <c:axId val="82205312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168477056"/>
+        <c:crossAx val="82207488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1107,7 +1098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168477056"/>
+        <c:axId val="82207488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1138,7 +1129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168474880"/>
+        <c:crossAx val="82205312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1192,7 +1183,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>of 1.0 Molar Sulfuric Acid </a:t>
+              <a:t>of Sulfuric Acid </a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1655,11 +1646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181158272"/>
-        <c:axId val="181160192"/>
+        <c:axId val="83313024"/>
+        <c:axId val="83314944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181158272"/>
+        <c:axId val="83313024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,10 +1665,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -1690,7 +1681,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181160192"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83314944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1698,7 +1699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181160192"/>
+        <c:axId val="83314944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1713,10 +1714,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -1729,7 +1730,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181158272"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83313024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1919,16 +1930,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>360028</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>175079</xdr:rowOff>
+      <xdr:rowOff>175080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2593,7 +2604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -2710,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
